--- a/OpFlix/M_Documentacao_Leonardo.xlsx
+++ b/OpFlix/M_Documentacao_Leonardo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20349"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45684686800\Documents\Gufos\2s2019-sprint-1-bd\OpFlix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45684686800\Documents\Projetos\2s2019-sprint-2-backend\OpFlix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D77774-230F-439B-A4D9-0F3172618DB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0C3FD1-4B42-4EEC-B4FB-3B0CB3D90860}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" xr2:uid="{22CE0286-852F-40F5-8079-5D92BF51D014}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>Tipos</t>
   </si>
   <si>
-    <t>UsuariosLancamentos</t>
-  </si>
-  <si>
     <t>O terceiro filme da boneca do mal</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Cassiana</t>
+  </si>
+  <si>
+    <t>Favoritos</t>
   </si>
 </sst>
 </file>
@@ -353,46 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -402,6 +363,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -727,7 +727,7 @@
   <dimension ref="B1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="H22" sqref="H22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +736,7 @@
     <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="21" customWidth="1"/>
+    <col min="5" max="5" width="14" style="8" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -747,34 +747,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="H3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="21"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -783,7 +783,7 @@
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
@@ -791,12 +791,12 @@
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
@@ -805,7 +805,7 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2">
         <v>1</v>
       </c>
@@ -816,9 +816,9 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -827,7 +827,7 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -838,9 +838,9 @@
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -849,15 +849,15 @@
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="6"/>
+      <c r="F7" s="8"/>
       <c r="H7" s="2">
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="J7" s="8"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -867,11 +867,11 @@
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -880,7 +880,7 @@
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
@@ -895,7 +895,7 @@
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="2">
         <v>1</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="2">
         <v>2</v>
       </c>
@@ -925,23 +925,23 @@
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="8"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
@@ -953,8 +953,8 @@
       <c r="D15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="4" t="s">
         <v>1</v>
       </c>
@@ -968,7 +968,7 @@
         <v>19</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -978,10 +978,10 @@
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="18"/>
+      <c r="D16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="14"/>
       <c r="F16" s="15"/>
       <c r="G16" s="2">
         <v>1</v>
@@ -995,7 +995,7 @@
       <c r="J16" s="3">
         <v>43580</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1006,10 +1006,10 @@
       <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="18"/>
+      <c r="D17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="14"/>
       <c r="F17" s="15"/>
       <c r="G17" s="2">
         <v>2</v>
@@ -1023,7 +1023,7 @@
       <c r="J17" s="3">
         <v>43642</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1034,10 +1034,10 @@
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="18"/>
+      <c r="D18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="14"/>
       <c r="F18" s="15"/>
       <c r="G18" s="2">
         <v>7</v>
@@ -1051,7 +1051,7 @@
       <c r="J18" s="3">
         <v>43665</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1062,10 +1062,10 @@
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="18"/>
+      <c r="D19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="2">
         <v>4</v>
@@ -1079,7 +1079,7 @@
       <c r="J19" s="3">
         <v>43615</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1088,18 +1088,18 @@
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="15"/>
       <c r="G20" s="2">
         <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I20" s="2">
         <v>2</v>
@@ -1107,22 +1107,22 @@
       <c r="J20" s="3">
         <v>43672</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="H22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="8"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="H22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
@@ -1135,7 +1135,7 @@
         <v>31</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>34</v>
@@ -1160,8 +1160,8 @@
       <c r="E24" s="2">
         <v>123456</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>44</v>
+      <c r="F24" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="H24" s="2">
         <v>2</v>
@@ -1175,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -1183,8 +1183,8 @@
       <c r="E25" s="2">
         <v>123456</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>45</v>
+      <c r="F25" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="H25" s="2">
         <v>3</v>
@@ -1206,8 +1206,8 @@
       <c r="E26" s="2">
         <v>123456</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>46</v>
+      <c r="F26" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="H26" s="2">
         <v>2</v>
@@ -1221,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
@@ -1229,8 +1229,8 @@
       <c r="E27" s="2">
         <v>3110</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>47</v>
+      <c r="F27" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="H27" s="2">
         <v>3</v>
@@ -1249,6 +1249,9 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E8:F8"/>
@@ -1260,9 +1263,6 @@
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/OpFlix/M_Documentacao_Leonardo.xlsx
+++ b/OpFlix/M_Documentacao_Leonardo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20349"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45684686800\Documents\Projetos\2s2019-sprint-2-backend\OpFlix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0C3FD1-4B42-4EEC-B4FB-3B0CB3D90860}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE9DB6D-6582-467F-AAB6-B3886043E5E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" xr2:uid="{22CE0286-852F-40F5-8079-5D92BF51D014}"/>
   </bookViews>
@@ -365,9 +365,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,18 +402,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105541D8-2D95-4D7E-BADC-83722A672392}">
   <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,33 +747,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="H3" s="10" t="s">
+      <c r="F3" s="15"/>
+      <c r="H3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -868,10 +868,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -930,18 +930,18 @@
       <c r="F12" s="6"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="11"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
@@ -950,11 +950,11 @@
       <c r="C15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="4" t="s">
         <v>1</v>
       </c>
@@ -978,11 +978,11 @@
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="2">
         <v>1</v>
       </c>
@@ -1006,11 +1006,11 @@
       <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="2">
         <v>2</v>
       </c>
@@ -1034,11 +1034,11 @@
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="2">
         <v>7</v>
       </c>
@@ -1062,11 +1062,11 @@
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="2">
         <v>4</v>
       </c>
@@ -1090,11 +1090,11 @@
       <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="2">
         <v>6</v>
       </c>
@@ -1112,17 +1112,17 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="H22" s="10" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="H22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="11"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
@@ -1249,20 +1249,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B14:K14"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D15:F15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
